--- a/tabular/eve/eve-refseqs-side-data.xlsx
+++ b/tabular/eve/eve-refseqs-side-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Filoviridae-EVE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26180B8A-1C59-D24C-B4FF-E41322FDD184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC749E-CD8A-814F-98DA-5F59CCC137C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="460" windowWidth="20540" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>Bathyergidae</t>
   </si>
@@ -159,12 +160,6 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Number-species</t>
-  </si>
-  <si>
-    <t>Number-dupes</t>
-  </si>
-  <si>
     <t>Clock-age</t>
   </si>
   <si>
@@ -229,6 +224,15 @@
   </si>
   <si>
     <t>genus</t>
+  </si>
+  <si>
+    <t>num_species</t>
+  </si>
+  <si>
+    <t>num_dupes</t>
+  </si>
+  <si>
+    <t>locus_numeric_id</t>
   </si>
 </sst>
 </file>
@@ -337,7 +341,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -354,6 +358,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,646 +690,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:H26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
+      <c r="C2" s="10">
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>53</v>
+      <c r="E3" s="3">
+        <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>31</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" t="s">
+      <c r="G6" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
+      <c r="C7" s="10">
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>53</v>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
+      <c r="C8" s="10">
+        <v>7</v>
       </c>
       <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
+      <c r="C9" s="10">
+        <v>8</v>
       </c>
       <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3">
+        <v>55</v>
+      </c>
+      <c r="C10" s="10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>33</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
+      <c r="C11" s="10">
+        <v>10</v>
       </c>
       <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>31</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
+      <c r="C13" s="10">
+        <v>31</v>
       </c>
       <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
         <v>13.1</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
+      <c r="C15" s="10">
+        <v>51</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>53</v>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3">
+        <v>62</v>
+      </c>
+      <c r="C16" s="10">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>13</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>35</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="10">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="10">
         <v>7</v>
       </c>
-      <c r="E18" s="7">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="10">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
         <v>31</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7">
-        <v>28.6</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>20.8</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>31</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" t="s">
-        <v>53</v>
+      <c r="G24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1334,4 +1366,73 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C563EE03-9903-F945-96FF-9911070E4C49}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/eve/eve-refseqs-side-data.xlsx
+++ b/tabular/eve/eve-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Filoviridae-EVE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC749E-CD8A-814F-98DA-5F59CCC137C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B020A0-025B-774C-8BE8-CBCDF37A3055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="460" windowWidth="20540" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27960" yWindow="860" windowWidth="20540" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,86 +29,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>Bathyergidae</t>
   </si>
   <si>
-    <t>EFLN.Filo.1-Bathyergidae</t>
-  </si>
-  <si>
     <t>Caviomorpha</t>
   </si>
   <si>
     <t>EFLN.Filo.2-Caviomorpha</t>
   </si>
   <si>
-    <t>EFLN.Filo.3-Dipodidae</t>
-  </si>
-  <si>
     <t>Cricetidae</t>
   </si>
   <si>
-    <t>EFLN.Filo.4-Cricetidae</t>
-  </si>
-  <si>
     <t>EFLN.Filo.5-Mus</t>
   </si>
   <si>
     <t>Ctenomys</t>
   </si>
   <si>
-    <t>EFLN.Filo.6-Ctenomys</t>
-  </si>
-  <si>
     <t>Acomys</t>
   </si>
   <si>
-    <t>EFLN.Filo.7-Acomys</t>
-  </si>
-  <si>
     <t>Dipodomys</t>
   </si>
   <si>
-    <t>EFLN.Filo.8-Dipodomys</t>
-  </si>
-  <si>
-    <t>EFLN.Filo.9-Spalacidae</t>
-  </si>
-  <si>
     <t>Neotominae</t>
   </si>
   <si>
-    <t>EFLN.Filo.10-Neotominae</t>
-  </si>
-  <si>
-    <t>EFLN.Filo.21-Vespertilionidae</t>
-  </si>
-  <si>
     <t>Soricidae</t>
   </si>
   <si>
-    <t>EFLN.Filo.31-Soricidae</t>
-  </si>
-  <si>
     <t>Monodelphis</t>
   </si>
   <si>
     <t>EFLN.Filo.51-Monodelphis</t>
   </si>
   <si>
-    <t>EFLN.Filo.61-Diprotodontia</t>
-  </si>
-  <si>
     <t>Chinchillidae</t>
   </si>
   <si>
     <t>EFLP.Filo.1-Chinchillidae</t>
   </si>
   <si>
-    <t>EFLP.Filo.2-Cricetidae</t>
-  </si>
-  <si>
     <t>Ctenomyidae</t>
   </si>
   <si>
@@ -118,9 +82,6 @@
     <t>Muridae</t>
   </si>
   <si>
-    <t>EFLP.Filo.3-Muridae</t>
-  </si>
-  <si>
     <t>Acomys cahirinus</t>
   </si>
   <si>
@@ -130,45 +91,15 @@
     <t>Tarsiidae</t>
   </si>
   <si>
-    <t>EFLP.Filo.5-Tarsiidae</t>
-  </si>
-  <si>
     <t>Myotis</t>
   </si>
   <si>
-    <t>EFLP.Filo.6-Myotis</t>
-  </si>
-  <si>
     <t>Macropodidae</t>
   </si>
   <si>
-    <t>EFLP.Filo.7-Macropodidae</t>
-  </si>
-  <si>
     <t>Phascolarctos</t>
   </si>
   <si>
-    <t>EFLP.Filo.8-Phascolarctos</t>
-  </si>
-  <si>
-    <t>EFLH.Filo.1-Cricetidae</t>
-  </si>
-  <si>
-    <t>SequenceID</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Clock-age</t>
-  </si>
-  <si>
-    <t>Ortho-age (MYA)</t>
-  </si>
-  <si>
-    <t>Ortho-age CI (MYA)</t>
-  </si>
-  <si>
     <t>28-40</t>
   </si>
   <si>
@@ -211,9 +142,6 @@
     <t>Myrmecophagidae</t>
   </si>
   <si>
-    <t>EFLN.Filo.41-Myrmecophagidae</t>
-  </si>
-  <si>
     <t>31-40</t>
   </si>
   <si>
@@ -233,6 +161,75 @@
   </si>
   <si>
     <t>locus_numeric_id</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>age-ci</t>
+  </si>
+  <si>
+    <t>eflh-filo.1-cricetidae-con</t>
+  </si>
+  <si>
+    <t>efln-filo.1-bathyergidae-con</t>
+  </si>
+  <si>
+    <t>efln-filo.9-spalacidae-con</t>
+  </si>
+  <si>
+    <t>efln-filo.8-dipodomys-con</t>
+  </si>
+  <si>
+    <t>efln-filo.7-acomys-con</t>
+  </si>
+  <si>
+    <t>efln-filo.6-ctenomys</t>
+  </si>
+  <si>
+    <t>efln-filo.3-dipodidae-con</t>
+  </si>
+  <si>
+    <t>efln-filo.10-neotominae-con</t>
+  </si>
+  <si>
+    <t>efln-filo.21-vespertilionidae-con</t>
+  </si>
+  <si>
+    <t>efln-filo.31-soricidae-con</t>
+  </si>
+  <si>
+    <t>efln-filo.41-vermilingua-con</t>
+  </si>
+  <si>
+    <t>efln-filo.61-diprotodontia-con</t>
+  </si>
+  <si>
+    <t>eflp-filo.2-cricetidae-con</t>
+  </si>
+  <si>
+    <t>eflp-filo.3-muridae-con</t>
+  </si>
+  <si>
+    <t>eflp-filo.5-tarsiidae</t>
+  </si>
+  <si>
+    <t>eflp-filo.8-phascolarctos-con</t>
+  </si>
+  <si>
+    <t>eflp-filo.7-macropodidae</t>
+  </si>
+  <si>
+    <t>eflp-filo.6-myotis-con</t>
+  </si>
+  <si>
+    <t>efln-filo.4-cricetidae-con</t>
   </si>
 </sst>
 </file>
@@ -690,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D15" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,41 +701,37 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -756,605 +749,483 @@
         <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
       <c r="F4" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="10">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7">
-        <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="10">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="7">
-        <v>31</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="10">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>13.1</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="10">
-        <v>51</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="10">
-        <v>61</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>13</v>
-      </c>
-      <c r="F16" s="7">
-        <v>35</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="G20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7">
-        <v>31</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="7">
-        <v>28.6</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="10">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="10">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="10">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>20.8</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="10">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="10">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>31</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" t="s">
-        <v>51</v>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1370,20 +1241,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C563EE03-9903-F945-96FF-9911070E4C49}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5">
         <v>3</v>
@@ -1395,22 +1266,22 @@
         <v>1</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -1422,14 +1293,118 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
         <v>51</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/eve-refseqs-side-data.xlsx
+++ b/tabular/eve/eve-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Filoviridae-EVE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B020A0-025B-774C-8BE8-CBCDF37A3055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57B45C-86A6-6541-9E75-87E80F0386B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27960" yWindow="860" windowWidth="20540" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:H21"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,11 +1221,6 @@
       </c>
       <c r="H20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/eve-refseqs-side-data.xlsx
+++ b/tabular/eve/eve-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Filoviridae-EVE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Filovirus-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57B45C-86A6-6541-9E75-87E80F0386B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41911FAB-D0EA-A24A-9B17-597E6B0063CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27960" yWindow="860" windowWidth="20540" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27960" yWindow="860" windowWidth="20640" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>efln-filo.8-dipodomys-con</t>
   </si>
   <si>
-    <t>efln-filo.7-acomys-con</t>
-  </si>
-  <si>
     <t>efln-filo.6-ctenomys</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>efln-filo.4-cricetidae-con</t>
+  </si>
+  <si>
+    <t>eflp-filo.7-acomys-con</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +757,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>34</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>36</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>38</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>19</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>20</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
